--- a/Python/Test/Testing/selenium/WKD_Req/wkd_test.xlsx
+++ b/Python/Test/Testing/selenium/WKD_Req/wkd_test.xlsx
@@ -14,28 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>/staff/scan-pay-agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商收银台加盟店收款码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商收银台员工收款码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>/terminal/scan-pay-agent</t>
-  </si>
-  <si>
-    <t>/staff/scan-pay-agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商收银台加盟店收款码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商收银台员工收款码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,40 +394,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
